--- a/data/trans_camb/P1417-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1417-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9671031375803628</v>
+        <v>-1.142466496003861</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1926359800574748</v>
+        <v>-0.1928310164265623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9633136012300616</v>
+        <v>-0.9619567575270681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02606964486489315</v>
+        <v>0.02790438279908419</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2880755208419759</v>
+        <v>0.2715657766438698</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6067418654053444</v>
+        <v>0.4286276888128735</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1778345481851938</v>
+        <v>-0.1714838298070991</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.17676804637931</v>
+        <v>0.1670822680638535</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0978779388774557</v>
+        <v>0.09842259458638523</v>
       </c>
     </row>
     <row r="6">
@@ -713,28 +713,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.449439978076741</v>
+        <v>1.445788380972246</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.895685248475231</v>
+        <v>2.1175656234311</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.742065968984251</v>
+        <v>2.927011550080936</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.524157005900961</v>
+        <v>6.016372196051187</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8994218150493126</v>
+        <v>0.8719505537403234</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.594750930438101</v>
+        <v>1.673663139047197</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.894645235127704</v>
+        <v>2.604371693567296</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>3.993577769918541</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5.439188829695691</v>
+        <v>5.43918882969569</v>
       </c>
     </row>
     <row r="8">
@@ -785,11 +785,9 @@
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.3644463645825831</v>
+        <v>-0.409814027643996</v>
       </c>
       <c r="K8" s="6" t="inlineStr"/>
     </row>
@@ -857,31 +855,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.275535114000704</v>
+        <v>-0.2745638128659557</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2732172308527577</v>
+        <v>-0.2736707783646904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6801596335558477</v>
+        <v>-0.6839229887255983</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.083753567405054</v>
+        <v>-1.02366221045962</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9774388889286081</v>
+        <v>-1.087967843405089</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7725006660686951</v>
+        <v>-0.6910260460729704</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5420020791129988</v>
+        <v>-0.4710720578362116</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4542859832873724</v>
+        <v>-0.4665488733487866</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.2970257079606158</v>
+        <v>-0.376787418154165</v>
       </c>
     </row>
     <row r="12">
@@ -892,31 +890,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4280763485485506</v>
+        <v>0.4220114959075111</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6857729118022279</v>
+        <v>0.5554383632017182</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.782478904655745</v>
+        <v>1.8640942460895</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.140734928791241</v>
+        <v>1.957604081514037</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.69591053666254</v>
+        <v>2.583379123784137</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9603354370025222</v>
+        <v>0.8725911847753207</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.046342968944773</v>
+        <v>1.110285275679826</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.32550361314488</v>
+        <v>1.329564475813571</v>
       </c>
     </row>
     <row r="13">
@@ -965,22 +963,22 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.5391555791239757</v>
+        <v>-0.5488101832649221</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4886886745420386</v>
+        <v>-0.5465771088770057</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4384481921676062</v>
+        <v>-0.3949171366307819</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5514768816789787</v>
+        <v>-0.4884683964476174</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5029133046622509</v>
+        <v>-0.4924472642542502</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3663893520536204</v>
+        <v>-0.3841643359361928</v>
       </c>
     </row>
     <row r="15">
@@ -994,22 +992,22 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>2.081322206976158</v>
+        <v>2.613559897408663</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.294557368975899</v>
+        <v>2.271897735823325</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.939579976779367</v>
+        <v>3.100579056422141</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.292828122666468</v>
+        <v>2.004363043688096</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.173032040269133</v>
+        <v>2.788911359141747</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.267801683321363</v>
+        <v>2.844950228408567</v>
       </c>
     </row>
     <row r="16">
@@ -1059,31 +1057,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3133996274922436</v>
+        <v>-0.277314336891347</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2768959835040764</v>
+        <v>-0.2745777202925619</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1048751441121854</v>
+        <v>0.1193589933382248</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4329791588111733</v>
+        <v>0.2991398878673302</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.184228995351656</v>
+        <v>-1.338946502050252</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.007905343373635</v>
+        <v>1.913663259079762</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1261849901304129</v>
+        <v>0.1184969990829461</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.6946133754146322</v>
+        <v>-0.6930389237658435</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.281362826458961</v>
+        <v>1.284462503218959</v>
       </c>
     </row>
     <row r="18">
@@ -1094,31 +1092,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4712263891866433</v>
+        <v>0.466726476278308</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.027901296515398</v>
+        <v>0.9466260311338484</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.029191375474772</v>
+        <v>1.901199738983481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.22342686278661</v>
+        <v>3.968004328564057</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.949424537142911</v>
+        <v>1.728428452398238</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.077545934939805</v>
+        <v>5.902547924767945</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.126947489889977</v>
+        <v>1.952742188845408</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.015093078534542</v>
+        <v>0.9799257439987216</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.506236705222046</v>
+        <v>3.429336510110995</v>
       </c>
     </row>
     <row r="19">
@@ -1153,7 +1151,7 @@
         <v>0.1823870669152137</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2.323301929613013</v>
+        <v>2.323301929613012</v>
       </c>
     </row>
     <row r="20">
@@ -1167,22 +1165,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>0.09407070034817716</v>
+        <v>0.00858540605181678</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4679544281331458</v>
+        <v>-0.5119341239922875</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6464467417047228</v>
+        <v>0.5552828298073924</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04964325541819713</v>
+        <v>0.03797111301172952</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4873139289269653</v>
+        <v>-0.4775696039007866</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.8023810590893679</v>
+        <v>0.7453990475557022</v>
       </c>
     </row>
     <row r="21">
@@ -1196,22 +1194,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>3.700573217353636</v>
+        <v>3.552746162401916</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.920361605495775</v>
+        <v>1.568207430518916</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.65831094932993</v>
+        <v>5.301415539443333</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.472479616471776</v>
+        <v>3.152087038800786</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.791701463359059</v>
+        <v>1.554469366842686</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>5.777267640587514</v>
+        <v>5.798476902913617</v>
       </c>
     </row>
     <row r="22">
@@ -1232,7 +1230,7 @@
         <v>0.1272348748307223</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1792902523789713</v>
+        <v>0.1792902523789711</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.287318055597665</v>
@@ -1250,7 +1248,7 @@
         <v>0.5237871240538501</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.363782686009914</v>
+        <v>2.363782686009913</v>
       </c>
     </row>
     <row r="23">
@@ -1261,31 +1259,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5812224297673984</v>
+        <v>-0.6485291069818889</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5802182024326469</v>
+        <v>-0.5617049141670371</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6158850803482205</v>
+        <v>-0.5697772930757077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2456696852610871</v>
+        <v>-0.2615592556847481</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6468229835053698</v>
+        <v>-0.6480827401414725</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.713535052840067</v>
+        <v>2.74779475629501</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1490926130415098</v>
+        <v>-0.1427353068036896</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.3081697876087954</v>
+        <v>-0.3715850928232069</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.360640292732138</v>
+        <v>1.38829456853689</v>
       </c>
     </row>
     <row r="24">
@@ -1296,31 +1294,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.996821439166218</v>
+        <v>0.9785337207260156</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.805381881031228</v>
+        <v>0.8032404928599022</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9398374063961273</v>
+        <v>0.884637756754896</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.180010299008693</v>
+        <v>3.120209095889472</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.461778497976803</v>
+        <v>2.610492234609142</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.052447139569071</v>
+        <v>6.211167625620415</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.800237537533551</v>
+        <v>1.659237253255619</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.419623285468745</v>
+        <v>1.383530386038634</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.236256049242294</v>
+        <v>3.367099562473669</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1335,7 @@
         <v>0.363298871921382</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.511934691824386</v>
+        <v>0.5119346918243858</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.9853931003518698</v>
@@ -1355,7 +1353,7 @@
         <v>0.6335945465930185</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>2.859329201519096</v>
+        <v>2.859329201519095</v>
       </c>
     </row>
     <row r="26">
@@ -1367,26 +1365,24 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.2466379599149842</v>
+        <v>-0.2620699586027981</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3698407502976356</v>
+        <v>-0.3834619575552223</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9696955741358402</v>
+        <v>1.14077337425505</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1959263836154294</v>
+        <v>-0.1685723680452907</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3194494987780173</v>
+        <v>-0.3246108670853884</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.9767408137548023</v>
+        <v>1.005513629859351</v>
       </c>
     </row>
     <row r="27">
@@ -1400,22 +1396,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>4.571295267251178</v>
+        <v>4.658202119338982</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.699001144005308</v>
+        <v>3.913152862259994</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9.368430901423109</v>
+        <v>9.519734957674107</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>4.085205119148227</v>
+        <v>4.020366272377243</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.05683205616655</v>
+        <v>2.858359695297079</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7.596291675181241</v>
+        <v>7.735675060340323</v>
       </c>
     </row>
     <row r="28">
@@ -1445,7 +1441,7 @@
         <v>0.2959154106025142</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.4203544658841509</v>
+        <v>0.4203544658841513</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.3854716988568391</v>
@@ -1471,25 +1467,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8547941327727929</v>
+        <v>0.8607420264011703</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.833754753464183</v>
+        <v>-1.717083424692845</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.936005033210098</v>
+        <v>-1.794317578647844</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.29000483090561</v>
+        <v>-1.490536081912565</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6858290393398833</v>
+        <v>-0.6609746555509809</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.6610329990888492</v>
+        <v>-0.7537855315291146</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.1843088571367829</v>
+        <v>-0.1861762276740608</v>
       </c>
     </row>
     <row r="30">
@@ -1500,31 +1496,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.632678359261918</v>
+        <v>1.655768213051424</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.55217832834361</v>
+        <v>1.551024960370627</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.78446587223935</v>
+        <v>2.811137877351748</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.086730874276673</v>
+        <v>2.220851960020517</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.58190024914698</v>
+        <v>2.339402724385646</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.22636280202042</v>
+        <v>1.962915538057977</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.458909587879362</v>
+        <v>1.536625711328387</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.528156238537075</v>
+        <v>1.501551978812176</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.003300194499776</v>
+        <v>2.039436064038315</v>
       </c>
     </row>
     <row r="31">
@@ -1556,7 +1552,7 @@
         <v>0.130278503010864</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1850635302764905</v>
+        <v>0.1850635302764906</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3321551050755807</v>
@@ -1579,22 +1575,22 @@
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.5883376777465503</v>
+        <v>-0.5898363588911261</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5534161550750935</v>
+        <v>-0.5873289951334982</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.393071313273852</v>
+        <v>-0.4676084992074721</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4390826614904509</v>
+        <v>-0.4456602755516634</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4686652045776192</v>
+        <v>-0.509846375726381</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2015194268650364</v>
+        <v>-0.2113034226609616</v>
       </c>
     </row>
     <row r="33">
@@ -1608,22 +1604,22 @@
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>1.651186461291792</v>
+        <v>1.852953025565091</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.243511348844633</v>
+        <v>1.853813567196148</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.079494033687289</v>
+        <v>1.567071383694178</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.143688501389534</v>
+        <v>2.545892710311044</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.855906794947314</v>
+        <v>2.4039555542248</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.967363387057963</v>
+        <v>3.060676631792188</v>
       </c>
     </row>
     <row r="34">
@@ -1653,7 +1649,7 @@
         <v>1.085952099802977</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.293950185037711</v>
+        <v>1.29395018503771</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.8295487246408183</v>
@@ -1662,7 +1658,7 @@
         <v>0.5732622593516854</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.260455253279689</v>
+        <v>1.26045525327969</v>
       </c>
     </row>
     <row r="35">
@@ -1673,31 +1669,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.826657766216678</v>
+        <v>-1.731737713270847</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.056764714301073</v>
+        <v>-2.111981675399909</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.077791564736602</v>
+        <v>-0.6708664757017663</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.9102161710498515</v>
+        <v>-0.9038083442502695</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.012313047978828</v>
+        <v>-1.161892277177226</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.8542667081602017</v>
+        <v>-0.8513086531372189</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.7485848150417573</v>
+        <v>-0.7011182848443986</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.9009295082037816</v>
+        <v>-0.9106882431793689</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.2052417781257712</v>
+        <v>-0.09019902084633857</v>
       </c>
     </row>
     <row r="36">
@@ -1708,31 +1704,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.674566149805423</v>
+        <v>2.679709109316283</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.866216233903457</v>
+        <v>1.813726325525278</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.99689584036043</v>
+        <v>3.114191830637313</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.882774299718585</v>
+        <v>3.68321801962805</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.332985772601226</v>
+        <v>3.531240762834445</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.954376564473247</v>
+        <v>3.055864682614839</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.522607299610174</v>
+        <v>2.700000368115882</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.992977457189364</v>
+        <v>2.056048397036835</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.630482182533453</v>
+        <v>2.521429537460269</v>
       </c>
     </row>
     <row r="37">
@@ -1749,7 +1745,7 @@
         <v>0.001478271790242268</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.8393400177597041</v>
+        <v>0.8393400177597039</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.5903377041152844</v>
@@ -1758,7 +1754,7 @@
         <v>0.5702957371335818</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6795274623292306</v>
+        <v>0.6795274623292302</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4853009335814452</v>
@@ -1767,7 +1763,7 @@
         <v>0.3353687389138472</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.7373890080044745</v>
+        <v>0.7373890080044749</v>
       </c>
     </row>
     <row r="38">
@@ -1778,31 +1774,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8174387033335977</v>
+        <v>-0.8093812343283348</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.84676945012283</v>
+        <v>-0.8697288344702563</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4881040943864728</v>
+        <v>-0.4596578052000996</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4131883856922204</v>
+        <v>-0.4070915498399623</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4205289229620669</v>
+        <v>-0.4726993668607535</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3150551632719558</v>
+        <v>-0.3215376393313787</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3732822586645628</v>
+        <v>-0.3556826876328052</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3594236002994967</v>
+        <v>-0.42927127105647</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1198815264544222</v>
+        <v>-0.07770028740198306</v>
       </c>
     </row>
     <row r="39">
@@ -1813,31 +1809,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>5.121698406056339</v>
+        <v>5.298518111905915</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>5.058509139749692</v>
+        <v>4.301234432847453</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6.464290898616798</v>
+        <v>8.194491711166791</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>4.232131193010262</v>
+        <v>3.762312677047991</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>4.406204367880365</v>
+        <v>3.799166732595391</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.156768626584637</v>
+        <v>3.453329218422788</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2.367101098780462</v>
+        <v>2.731790590094546</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2.10455763212883</v>
+        <v>2.122874115589658</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.524693848081014</v>
+        <v>2.586759938875426</v>
       </c>
     </row>
     <row r="40">
@@ -1867,7 +1863,7 @@
         <v>0.6238236410436727</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>4.730243879790406</v>
+        <v>4.730243879790405</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.4281680239428151</v>
@@ -1876,7 +1872,7 @@
         <v>0.1825438127446011</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.710539150952957</v>
+        <v>3.710539150952959</v>
       </c>
     </row>
     <row r="41">
@@ -1887,31 +1883,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.413888608323617</v>
+        <v>-4.015937928914453</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.425552694244113</v>
+        <v>-3.462279862096864</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.5306894127457735</v>
+        <v>-0.8433892155725029</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.202594111894223</v>
+        <v>-3.094668014843115</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.653881826152727</v>
+        <v>-2.855624885050462</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.443726420887473</v>
+        <v>1.934070494021372</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.254581164387883</v>
+        <v>-2.523663287640588</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.085433497372259</v>
+        <v>-1.972310258415616</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.539378941645842</v>
+        <v>1.452224162844306</v>
       </c>
     </row>
     <row r="42">
@@ -1922,31 +1918,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.7163726307158004</v>
+        <v>0.8112941133140785</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.636648588366073</v>
+        <v>1.649658895352091</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.114921286244292</v>
+        <v>4.740159858659422</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.133468347947733</v>
+        <v>3.037333672579887</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.844768104379204</v>
+        <v>3.341651566840278</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.375156195037559</v>
+        <v>7.369244411912851</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.769586273738662</v>
+        <v>1.824879673594983</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.169553283287181</v>
+        <v>2.335646802620481</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.717983899725527</v>
+        <v>5.71013342337837</v>
       </c>
     </row>
     <row r="43">
@@ -1981,7 +1977,7 @@
         <v>0.05788936161010376</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.1767078787737</v>
+        <v>1.176707878773701</v>
       </c>
     </row>
     <row r="44">
@@ -1993,28 +1989,28 @@
       </c>
       <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="n">
-        <v>-0.8976705694769714</v>
+        <v>-0.9271390513738795</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2969505803601928</v>
+        <v>-0.372405066487358</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5463350307278858</v>
+        <v>-0.570378024763187</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5030819216056759</v>
+        <v>-0.5093597075470084</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2183796877311843</v>
+        <v>0.2648799779350381</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.5441697895801525</v>
+        <v>-0.5808733003361379</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4772978421457605</v>
+        <v>-0.4696595118471165</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2910085002082066</v>
+        <v>0.2437898684190989</v>
       </c>
     </row>
     <row r="45">
@@ -2026,28 +2022,28 @@
       </c>
       <c r="C45" s="6" t="inlineStr"/>
       <c r="D45" s="6" t="n">
-        <v>2.422356414714293</v>
+        <v>2.709240074944201</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>7.475186632654581</v>
+        <v>5.891046321823452</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.479917249944749</v>
+        <v>1.361526640210684</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.855041040174608</v>
+        <v>1.434070535583278</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.577852349255404</v>
+        <v>3.579725158319341</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.9224465174144629</v>
+        <v>0.9705752218877773</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.072626569047442</v>
+        <v>1.165254491794254</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.86189088610009</v>
+        <v>2.731317006672076</v>
       </c>
     </row>
     <row r="46">
@@ -2068,7 +2064,7 @@
         <v>0.1511394173982236</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.8289995249279265</v>
+        <v>0.8289995249279262</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.010176432353802</v>
@@ -2077,7 +2073,7 @@
         <v>0.7442218142061908</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>2.811986732701426</v>
+        <v>2.811986732701425</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.5336680819936768</v>
@@ -2097,31 +2093,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.2680191635219031</v>
+        <v>-0.2766302673214799</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.1861786773760587</v>
+        <v>-0.1786711764079237</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.4229999264653684</v>
+        <v>0.421680321871848</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.3383415124082605</v>
+        <v>0.2705486411650542</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.06868558402273275</v>
+        <v>0.09815625736746265</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2.08274672586813</v>
+        <v>2.093435078988792</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.1435809166269313</v>
+        <v>0.1310096933570468</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.1230724511456161</v>
+        <v>0.03245629229422509</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.429839731734333</v>
+        <v>1.448935537171445</v>
       </c>
     </row>
     <row r="48">
@@ -2132,31 +2128,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.3623965671021127</v>
+        <v>0.3569060975038912</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.5175779510002919</v>
+        <v>0.5050692236123492</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.268671410787643</v>
+        <v>1.242051714840257</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.744088677849256</v>
+        <v>1.744057325515486</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.51660414712332</v>
+        <v>1.459245377010608</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.516851933432247</v>
+        <v>3.52941475247605</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.9715440216505077</v>
+        <v>0.9081853130350722</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.85396690004035</v>
+        <v>0.8330786813375806</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.315183235171971</v>
+        <v>2.31441371049262</v>
       </c>
     </row>
     <row r="49">
@@ -2173,7 +2169,7 @@
         <v>0.3673427432412127</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>2.014874510401983</v>
+        <v>2.014874510401982</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.5918869500978229</v>
@@ -2202,31 +2198,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5005233107888969</v>
+        <v>-0.5147661041998639</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3575830052326005</v>
+        <v>-0.3382888524860447</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.6459488559028271</v>
+        <v>0.6039137735417934</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.142094202022002</v>
+        <v>0.1272291127316845</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.01969557145428062</v>
+        <v>0.04700789968255466</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>1.012343045420801</v>
+        <v>0.9593412715027771</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1147210919343567</v>
+        <v>0.09835632035194544</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.07407820693036075</v>
+        <v>0.0383878981856306</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.083846972594511</v>
+        <v>1.109774677821246</v>
       </c>
     </row>
     <row r="51">
@@ -2237,31 +2233,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.652323792022388</v>
+        <v>1.4825477351349</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>2.084357785485662</v>
+        <v>1.987790669463217</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>5.268209251960021</v>
+        <v>4.747850919504979</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.191379635293689</v>
+        <v>1.309316349948831</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.102684135851943</v>
+        <v>1.09836479232985</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>2.683099478561197</v>
+        <v>2.546221180307732</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.084171869410738</v>
+        <v>1.028199237917777</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.9469508958901515</v>
+        <v>0.955898224831401</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>2.67176620809742</v>
+        <v>2.644630102505694</v>
       </c>
     </row>
     <row r="52">
